--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,251 +406,6 @@
       </c>
       <c r="T1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" t="n">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Days</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Date\Type</t>
   </si>
 </sst>
 </file>
@@ -374,13 +377,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="13.2"/>
+    <col customWidth="1" max="2" min="2" width="9.6"/>
+    <col customWidth="1" max="3" min="3" width="2.4"/>
+    <col customWidth="1" max="4" min="4" width="2.4"/>
+    <col customWidth="1" max="5" min="5" width="10.8"/>
+    <col customWidth="1" max="6" min="6" width="2.4"/>
+    <col customWidth="1" max="7" min="7" width="2.4"/>
+    <col customWidth="1" max="8" min="8" width="13.2"/>
+    <col customWidth="1" max="9" min="9" width="2.4"/>
+    <col customWidth="1" max="10" min="10" width="2.4"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="2.4"/>
+    <col customWidth="1" max="13" min="13" width="2.4"/>
+    <col customWidth="1" max="14" min="14" width="9.6"/>
+    <col customWidth="1" max="15" min="15" width="2.4"/>
+    <col customWidth="1" max="16" min="16" width="2.4"/>
+    <col customWidth="1" max="17" min="17" width="12"/>
+    <col customWidth="1" max="18" min="18" width="2.4"/>
+    <col customWidth="1" max="19" min="19" width="2.4"/>
+    <col customWidth="1" max="20" min="20" width="9.6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -406,6 +431,11 @@
       </c>
       <c r="T1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Days</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>Date\Type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>general cost</t>
+  </si>
+  <si>
+    <t>4/2/2019</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -377,37 +395,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="V3" xSplit="21" ySplit="2"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="13.2"/>
     <col customWidth="1" max="2" min="2" width="9.6"/>
-    <col customWidth="1" max="3" min="3" width="2.4"/>
-    <col customWidth="1" max="4" min="4" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="7.199999999999999"/>
+    <col customWidth="1" max="4" min="4" width="16.8"/>
     <col customWidth="1" max="5" min="5" width="10.8"/>
-    <col customWidth="1" max="6" min="6" width="2.4"/>
-    <col customWidth="1" max="7" min="7" width="2.4"/>
+    <col customWidth="1" max="6" min="6" width="7.199999999999999"/>
+    <col customWidth="1" max="7" min="7" width="16.8"/>
     <col customWidth="1" max="8" min="8" width="13.2"/>
-    <col customWidth="1" max="9" min="9" width="2.4"/>
-    <col customWidth="1" max="10" min="10" width="2.4"/>
+    <col customWidth="1" max="9" min="9" width="7.199999999999999"/>
+    <col customWidth="1" max="10" min="10" width="16.8"/>
     <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="2.4"/>
-    <col customWidth="1" max="13" min="13" width="2.4"/>
+    <col customWidth="1" max="12" min="12" width="7.199999999999999"/>
+    <col customWidth="1" max="13" min="13" width="16.8"/>
     <col customWidth="1" max="14" min="14" width="9.6"/>
-    <col customWidth="1" max="15" min="15" width="2.4"/>
-    <col customWidth="1" max="16" min="16" width="2.4"/>
+    <col customWidth="1" max="15" min="15" width="7.199999999999999"/>
+    <col customWidth="1" max="16" min="16" width="16.8"/>
     <col customWidth="1" max="17" min="17" width="12"/>
-    <col customWidth="1" max="18" min="18" width="2.4"/>
-    <col customWidth="1" max="19" min="19" width="2.4"/>
+    <col customWidth="1" max="18" min="18" width="7.199999999999999"/>
+    <col customWidth="1" max="19" min="19" width="16.8"/>
     <col customWidth="1" max="20" min="20" width="9.6"/>
+    <col customWidth="1" max="21" min="21" width="7.199999999999999"/>
+    <col customWidth="1" max="22" min="22" width="16.8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,9 +456,83 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Days</t>
   </si>
@@ -56,10 +56,16 @@
     <t>4/2/2019</t>
   </si>
   <si>
-    <t>bananas</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
 </sst>
 </file>
@@ -76,12 +82,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00CCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="00FF9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +137,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -395,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="V3" xSplit="21" ySplit="2"/>
@@ -434,25 +499,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -460,67 +525,67 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -528,15 +593,41 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" s="8">
+        <f>SUM(I3:I5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -544,6 +635,8 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J3:J5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Days</t>
   </si>
@@ -59,10 +59,13 @@
     <t>wc</t>
   </si>
   <si>
+    <t>ff</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>ff</t>
+    <t>cinema</t>
   </si>
   <si>
     <t>gift</t>
@@ -460,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="V3" xSplit="21" ySplit="2"/>
@@ -603,31 +606,48 @@
         <f>SUM(I3:I5)</f>
         <v/>
       </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+      <c r="M3" s="8">
+        <f>SUM(L3:L4)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
       <c r="I4" t="n">
         <v>550</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
         <v>200</v>
       </c>
     </row>
+    <row r="6" spans="1:22"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -637,6 +657,7 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J3:J5"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -12,65 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Date\Type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>general cost</t>
-  </si>
-  <si>
-    <t>4/2/2019</t>
-  </si>
-  <si>
-    <t>wc</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>cinema</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,7 +413,7 @@
       <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="13.2"/>
     <col customWidth="1" max="2" min="2" width="9.6"/>
@@ -498,106 +439,170 @@
     <col customWidth="1" max="22" min="22" width="16.8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date\Type</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="S2" s="6" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>general cost</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>wc</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -606,8 +611,10 @@
         <f>SUM(I3:I5)</f>
         <v/>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
       </c>
       <c r="L3" t="n">
         <v>150</v>
@@ -616,38 +623,72 @@
         <f>SUM(L3:L4)</f>
         <v/>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>270</v>
+      </c>
+      <c r="S3" s="8">
+        <f>SUM(R3:R3)</f>
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>190</v>
+      </c>
+      <c r="V3" s="8">
+        <f>SUM(U3:U3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>550</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>cinema</t>
+        </is>
       </c>
       <c r="L4" t="n">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:22"/>
+    <row r="6"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -658,6 +699,8 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="V3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="V3" xSplit="21" ySplit="2"/>
@@ -686,9 +686,205 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18/2/2019</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(C6:C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mandarines</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/2/2019</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>180</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM(F11:F14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18/2/2019</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>180</v>
+      </c>
+      <c r="J15" s="8">
+        <f>SUM(I15:I16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18/2/2019</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>180</v>
+      </c>
+      <c r="M17" s="8">
+        <f>SUM(L17:L17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -701,6 +897,10 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="S3"/>
     <mergeCell ref="V3"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M17"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -4,26 +4,41 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pays" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="9">
@@ -34,38 +49,45 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00FFFFCC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0C0"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00CCFFCC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0F0C0"/>
+        <bgColor rgb="FFC0F0F0"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00CCFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0F0F0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00CCCCFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0F0"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00FFCCFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0C0F0"/>
+        <bgColor rgb="FFF0C0C0"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00FFCCCC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0C0C0"/>
+        <bgColor rgb="FFF0C0F0"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray0625">
-        <bgColor rgb="00FF9999"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF09090"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,40 +100,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -400,489 +493,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="V3" xSplit="21" ySplit="2"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="V3" xSplit="0" ySplit="2"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="E9" activeCellId="0" pane="bottomLeft" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="13.2"/>
-    <col customWidth="1" max="2" min="2" width="9.6"/>
-    <col customWidth="1" max="3" min="3" width="7.199999999999999"/>
-    <col customWidth="1" max="4" min="4" width="16.8"/>
-    <col customWidth="1" max="5" min="5" width="10.8"/>
-    <col customWidth="1" max="6" min="6" width="7.199999999999999"/>
-    <col customWidth="1" max="7" min="7" width="16.8"/>
-    <col customWidth="1" max="8" min="8" width="13.2"/>
-    <col customWidth="1" max="9" min="9" width="7.199999999999999"/>
-    <col customWidth="1" max="10" min="10" width="16.8"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="7.199999999999999"/>
-    <col customWidth="1" max="13" min="13" width="16.8"/>
-    <col customWidth="1" max="14" min="14" width="9.6"/>
-    <col customWidth="1" max="15" min="15" width="7.199999999999999"/>
-    <col customWidth="1" max="16" min="16" width="16.8"/>
-    <col customWidth="1" max="17" min="17" width="12"/>
-    <col customWidth="1" max="18" min="18" width="7.199999999999999"/>
-    <col customWidth="1" max="19" min="19" width="16.8"/>
-    <col customWidth="1" max="20" min="20" width="9.6"/>
-    <col customWidth="1" max="21" min="21" width="7.199999999999999"/>
-    <col customWidth="1" max="22" min="22" width="16.8"/>
+    <col customWidth="1" max="1" min="1" style="18" width="13.2"/>
+    <col customWidth="1" max="2" min="2" style="18" width="9.6"/>
+    <col customWidth="1" max="3" min="3" style="18" width="7.2"/>
+    <col customWidth="1" max="4" min="4" style="18" width="16.8"/>
+    <col customWidth="1" max="5" min="5" style="18" width="10.81"/>
+    <col customWidth="1" max="6" min="6" style="18" width="7.2"/>
+    <col customWidth="1" max="7" min="7" style="18" width="16.8"/>
+    <col customWidth="1" max="8" min="8" style="18" width="13.2"/>
+    <col customWidth="1" max="9" min="9" style="18" width="7.2"/>
+    <col customWidth="1" max="10" min="10" style="18" width="16.8"/>
+    <col customWidth="1" max="11" min="11" style="18" width="12"/>
+    <col customWidth="1" max="12" min="12" style="18" width="7.2"/>
+    <col customWidth="1" max="13" min="13" style="18" width="16.8"/>
+    <col customWidth="1" max="14" min="14" style="18" width="9.6"/>
+    <col customWidth="1" max="15" min="15" style="18" width="7.2"/>
+    <col customWidth="1" max="16" min="16" style="18" width="16.8"/>
+    <col customWidth="1" max="17" min="17" style="18" width="12"/>
+    <col customWidth="1" max="18" min="18" style="18" width="7.2"/>
+    <col customWidth="1" max="19" min="19" style="18" width="16.8"/>
+    <col customWidth="1" max="20" min="20" style="18" width="9.6"/>
+    <col customWidth="1" max="21" min="21" style="18" width="7.2"/>
+    <col customWidth="1" max="22" min="22" style="18" width="16.8"/>
+    <col customWidth="1" max="1025" min="23" style="18" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row customHeight="1" ht="15" r="1" s="19">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Days</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="Q1" s="25" t="inlineStr">
         <is>
           <t>Saturday</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="26" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row customHeight="1" ht="15" r="2" s="19">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Date\Type</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="21" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="21" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="22" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="22" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="22" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="23" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="23" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="23" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="24" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="O2" s="24" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="P2" s="24" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="Q2" s="6" t="inlineStr">
+      <c r="Q2" s="25" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="25" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="S2" s="6" t="inlineStr">
+      <c r="S2" s="25" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="26" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="U2" s="7" t="inlineStr">
+      <c r="U2" s="26" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="V2" s="7" t="inlineStr">
+      <c r="V2" s="26" t="inlineStr">
         <is>
           <t>general cost</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row customHeight="1" ht="15" r="3" s="19">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>4/2/2019</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="18" t="inlineStr">
         <is>
           <t>wc</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="28">
         <f>SUM(I3:I5)</f>
         <v/>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="18" t="inlineStr">
         <is>
           <t>ff</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="28">
         <f>SUM(L3:L4)</f>
         <v/>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="18" t="inlineStr">
         <is>
           <t>friends</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="18" t="n">
         <v>270</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="28">
         <f>SUM(R3:R3)</f>
         <v/>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="18" t="inlineStr">
         <is>
           <t>friends</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="18" t="n">
         <v>190</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="28">
         <f>SUM(U3:U3)</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row customHeight="1" ht="15" r="4" s="19">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="18" t="inlineStr">
         <is>
           <t>ff</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="18" t="n">
         <v>550</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="18" t="inlineStr">
         <is>
           <t>cinema</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="18" t="n">
         <v>420</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row customHeight="1" ht="15" r="5" s="19">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="18" t="inlineStr">
         <is>
           <t>gift</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="18" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18/2/2019</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="6" s="19">
+      <c r="A6" s="18" t="inlineStr">
+        <is>
+          <t>11/2/2019</t>
+        </is>
+      </c>
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>dinner</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="28">
         <f>SUM(C6:C10)</f>
         <v/>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="G6" s="28">
+        <f>SUM(F6:F9)</f>
+        <v/>
+      </c>
+      <c r="H6" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="J6" s="28">
+        <f>SUM(I6:I7)</f>
+        <v/>
+      </c>
+      <c r="K6" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="M6" s="28">
+        <f>SUM(L6:L6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="P6" s="28">
+        <f>SUM(O6:O13)</f>
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>130</v>
+      </c>
+      <c r="S6" s="28">
+        <f>SUM(R6:R7)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="19">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>snacks</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="18" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>410</v>
+      </c>
+      <c r="N7" s="18" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="19">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="18" t="n">
         <v>160</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" s="18" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="19">
+      <c r="A9" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>bananas</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="18" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E9" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="19">
+      <c r="A10" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>mandarines</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="18" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>18/2/2019</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>dinner</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>180</v>
-      </c>
-      <c r="G11" s="8">
-        <f>SUM(F11:F14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="N10" s="18" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="19">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ff</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="N11" s="18" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="O11" s="18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="19">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>snacks</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="N12" s="18" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="19">
+      <c r="A13" s="18" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>bananas</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>18/2/2019</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>dinner</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>180</v>
-      </c>
-      <c r="J15" s="8">
-        <f>SUM(I15:I16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ff</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>18/2/2019</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>dinner</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>180</v>
-      </c>
-      <c r="M17" s="8">
-        <f>SUM(L17:L17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18"/>
+      <c r="N13" s="18" t="inlineStr">
+        <is>
+          <t>vape</t>
+        </is>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="14" s="19"/>
+    <row customHeight="1" ht="13.8" r="15" s="19"/>
+    <row customHeight="1" ht="13.8" r="16" s="19"/>
+    <row customHeight="1" ht="13.8" r="17" s="19"/>
+    <row customHeight="1" ht="13.8" r="18" s="19"/>
+    <row customHeight="1" ht="13.8" r="19" s="19"/>
+    <row customHeight="1" ht="13.8" r="20" s="19"/>
+    <row customHeight="1" ht="13.8" r="21" s="19"/>
+    <row customHeight="1" ht="13.8" r="22" s="19"/>
+    <row customHeight="1" ht="13.8" r="23" s="19"/>
+    <row customHeight="1" ht="13.8" r="24" s="19"/>
+    <row customHeight="1" ht="13.8" r="25" s="19"/>
+    <row customHeight="1" ht="13.8" r="26" s="19"/>
+    <row customHeight="1" ht="13.8" r="27" s="19"/>
+    <row customHeight="1" ht="13.8" r="28" s="19"/>
+    <row customHeight="1" ht="13.8" r="29" s="19"/>
+    <row customHeight="1" ht="13.8" r="30" s="19">
+      <c r="D30" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="31" s="19"/>
+    <row customHeight="1" ht="13.8" r="32" s="19"/>
+    <row customHeight="1" ht="13.8" r="33" s="19"/>
+    <row customHeight="1" ht="13.8" r="34" s="19"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B1:D1"/>
@@ -892,16 +1067,18 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S3"/>
-    <mergeCell ref="V3"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M17"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="P6:P12"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t xml:space="preserve">Days</t>
   </si>
@@ -121,7 +121,13 @@
     <t xml:space="preserve">breakfast</t>
   </si>
   <si>
+    <t xml:space="preserve">useless</t>
+  </si>
+  <si>
     <t xml:space="preserve">chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolls</t>
   </si>
 </sst>
 </file>
@@ -143,19 +149,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -394,10 +397,10 @@
   </sheetPr>
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="V3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,7 +865,7 @@
       <c r="I14" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="J14" s="17" t="n">
+      <c r="J14" s="16" t="n">
         <f aca="false">SUM(I14:I15)</f>
         <v>288</v>
       </c>
@@ -876,6 +879,26 @@
         <f aca="false">SUM(L14:L15)</f>
         <v>280</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="P14" s="16" t="n">
+        <f aca="false">SUM(O14:O16)</f>
+        <v>281</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="S14" s="16" t="n">
+        <f aca="false">SUM(R14:R16)</f>
+        <v>1027</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -901,7 +924,7 @@
       <c r="I15" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,6 +932,20 @@
         <v>180</v>
       </c>
       <c r="M15" s="16"/>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -928,13 +965,27 @@
         <v>38</v>
       </c>
       <c r="G16" s="16"/>
+      <c r="N16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>50</v>
@@ -972,7 +1023,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -991,6 +1042,8 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="M14:M15"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="S14:S16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V9" xSplit="0" ySplit="2"/>
@@ -700,7 +700,7 @@
       <c r="I3" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="28">
         <f>SUM(I3:I5)</f>
         <v/>
       </c>
@@ -712,7 +712,7 @@
       <c r="L3" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="28">
         <f>SUM(L3:L4)</f>
         <v/>
       </c>
@@ -724,7 +724,7 @@
       <c r="R3" s="18" t="n">
         <v>270</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="28">
         <f>SUM(R3:R3)</f>
         <v/>
       </c>
@@ -736,7 +736,7 @@
       <c r="U3" s="18" t="n">
         <v>190</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="28">
         <f>SUM(U3:U3)</f>
         <v/>
       </c>
@@ -793,7 +793,7 @@
       <c r="C6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="28">
         <f>SUM(C6:C10)</f>
         <v/>
       </c>
@@ -805,7 +805,7 @@
       <c r="F6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <f>SUM(F6:F9)</f>
         <v/>
       </c>
@@ -817,7 +817,7 @@
       <c r="I6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="28">
         <f>SUM(I6:I7)</f>
         <v/>
       </c>
@@ -829,7 +829,7 @@
       <c r="L6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="28">
         <f>SUM(L6:L6)</f>
         <v/>
       </c>
@@ -841,7 +841,7 @@
       <c r="O6" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <f>SUM(O6:O13)</f>
         <v/>
       </c>
@@ -853,7 +853,7 @@
       <c r="R6" s="18" t="n">
         <v>130</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="28">
         <f>SUM(R6:R7)</f>
         <v/>
       </c>
@@ -865,7 +865,7 @@
       <c r="U6" s="18" t="n">
         <v>170</v>
       </c>
-      <c r="V6" s="27" t="n">
+      <c r="V6" s="28" t="n">
         <v>170</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       <c r="C14" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="28">
         <f>SUM(C14:C16)</f>
         <v/>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="F14" s="18" t="n">
         <v>72</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="28">
         <f>SUM(F14:F18)</f>
         <v/>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="I14" s="18" t="n">
         <v>108</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="28">
         <f>SUM(I14:I15)</f>
         <v/>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="L14" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="28">
         <f>SUM(L14:L15)</f>
         <v/>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="O14" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="28">
         <f>SUM(O14:O16)</f>
         <v/>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="R14" s="18" t="n">
         <v>162</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="28">
         <f>SUM(R14:R16)</f>
         <v/>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="C19" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="28">
         <f>SUM(C19:C26)</f>
         <v/>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="F19" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="28">
         <f>SUM(F19:F21)</f>
         <v/>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="I19" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="28">
         <f>SUM(I19:I22)</f>
         <v/>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="L19" s="18" t="n">
         <v>52</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="28">
         <f>SUM(L19:L22)</f>
         <v/>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="O19" s="18" t="n">
         <v>200</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="28">
         <f>SUM(O19:O23)</f>
         <v/>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="C27" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="28">
         <f>SUM(C27:C29)</f>
         <v/>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="F27" s="18" t="n">
         <v>85</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="28">
         <f>SUM(F27:F29)</f>
         <v/>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="I27" s="18" t="n">
         <v>148</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="28">
         <f>SUM(I27:I29)</f>
         <v/>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="L27" s="18" t="n">
         <v>285</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="28">
         <f>SUM(L27:L29)</f>
         <v/>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="O27" s="18" t="n">
         <v>850</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="28">
         <f>SUM(O27:O29)</f>
         <v/>
       </c>
@@ -1591,20 +1591,20 @@
       <c r="R27" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="28">
         <f>SUM(R27:R29)</f>
         <v/>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" s="18" t="inlineStr">
         <is>
           <t>me</t>
         </is>
       </c>
-      <c r="U27" t="n">
+      <c r="U27" s="18" t="n">
         <v>157</v>
       </c>
       <c r="V27" s="28">
-        <f>SUM(U27:U27)</f>
+        <f>SUM(U27:U28)</f>
         <v/>
       </c>
     </row>
@@ -1662,6 +1662,14 @@
       <c r="R28" s="18" t="n">
         <v>180</v>
       </c>
+      <c r="T28" s="18" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="U28" s="18" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="19">
       <c r="A29" s="18" t="inlineStr">
@@ -1719,15 +1727,150 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="19">
-      <c r="D30" s="27" t="n"/>
-      <c r="M30" s="27" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="31" s="19"/>
-    <row customHeight="1" ht="13.8" r="32" s="19"/>
-    <row customHeight="1" ht="13.8" r="33" s="19"/>
-    <row customHeight="1" ht="13.8" r="34" s="19"/>
+      <c r="A30" s="18" t="inlineStr">
+        <is>
+          <t>11/3/2019</t>
+        </is>
+      </c>
+      <c r="B30" s="18" t="inlineStr">
+        <is>
+          <t>hosting</t>
+        </is>
+      </c>
+      <c r="C30" s="18" t="n">
+        <v>170</v>
+      </c>
+      <c r="D30" s="28">
+        <f>SUM(C30:C30)</f>
+        <v/>
+      </c>
+      <c r="E30" s="18" t="inlineStr">
+        <is>
+          <t>chocolate</t>
+        </is>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="G30" s="28">
+        <f>SUM(F30:F33)</f>
+        <v/>
+      </c>
+      <c r="H30" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="I30" s="18" t="n">
+        <v>74</v>
+      </c>
+      <c r="J30" s="28">
+        <f>SUM(I30:I35)</f>
+        <v/>
+      </c>
+      <c r="M30" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="31" s="19">
+      <c r="A31" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E31" s="18" t="inlineStr">
+        <is>
+          <t>sweet</t>
+        </is>
+      </c>
+      <c r="F31" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="H31" s="18" t="inlineStr">
+        <is>
+          <t>hygiene</t>
+        </is>
+      </c>
+      <c r="I31" s="18" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="32" s="19">
+      <c r="A32" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E32" s="18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="F32" s="18" t="n">
+        <v>49</v>
+      </c>
+      <c r="H32" s="18" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="I32" s="18" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="33" s="19">
+      <c r="A33" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="H33" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="I33" s="18" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="34" s="19">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="18" t="inlineStr">
+        <is>
+          <t>mandarines</t>
+        </is>
+      </c>
+      <c r="I34" s="18" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -1760,6 +1903,11 @@
     <mergeCell ref="P27:P29"/>
     <mergeCell ref="S27:S29"/>
     <mergeCell ref="V27"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="D30"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="J30:J35"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V9" xSplit="0" ySplit="2"/>
@@ -1768,7 +1768,42 @@
         <f>SUM(I30:I35)</f>
         <v/>
       </c>
-      <c r="M30" s="28" t="n"/>
+      <c r="K30" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L30" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="M30" s="28">
+        <f>SUM(L30:L30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="O30" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="P30" s="28">
+        <f>SUM(O30:O31)</f>
+        <v/>
+      </c>
+      <c r="T30" s="18" t="inlineStr">
+        <is>
+          <t>kindred</t>
+        </is>
+      </c>
+      <c r="U30" s="18" t="n">
+        <v>300</v>
+      </c>
+      <c r="V30" s="28">
+        <f>SUM(U30:U30)</f>
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="19">
       <c r="A31" s="18" t="inlineStr">
@@ -1792,6 +1827,14 @@
       <c r="I31" s="18" t="n">
         <v>200</v>
       </c>
+      <c r="N31" s="18" t="inlineStr">
+        <is>
+          <t>kindred</t>
+        </is>
+      </c>
+      <c r="O31" s="18" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="19">
       <c r="A32" s="18" t="inlineStr">
@@ -1855,22 +1898,122 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="18" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="18" t="n">
         <v>147</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>18/3/2019</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C36" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="D36" s="28">
+        <f>SUM(C36:C40)</f>
+        <v/>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>kindred</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>200</v>
+      </c>
+      <c r="G36" s="28">
+        <f>SUM(F36:F37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B37" s="18" t="inlineStr">
+        <is>
+          <t>mandarines</t>
+        </is>
+      </c>
+      <c r="C37" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B38" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="C38" s="18" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B39" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="C39" s="18" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C40" s="18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="43">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -1908,6 +2051,12 @@
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="J30:J34"/>
     <mergeCell ref="J30:J35"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="P30"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="V30"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -1930,18 +1930,42 @@
         <f>SUM(C36:C40)</f>
         <v/>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="18" t="inlineStr">
         <is>
           <t>kindred</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="18" t="n">
         <v>200</v>
       </c>
       <c r="G36" s="28">
         <f>SUM(F36:F37)</f>
         <v/>
       </c>
+      <c r="K36" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L36" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="M36" s="28">
+        <f>SUM(L36:L37)</f>
+        <v/>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>55</v>
+      </c>
+      <c r="P36" s="28">
+        <f>SUM(O36:O37)</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="inlineStr">
@@ -1957,13 +1981,29 @@
       <c r="C37" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="18" t="inlineStr">
         <is>
           <t>ff</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="18" t="n">
         <v>350</v>
+      </c>
+      <c r="K37" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="L37" s="18" t="n">
+        <v>53</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>pie</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -2013,7 +2053,7 @@
     </row>
     <row r="41"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -2057,6 +2097,9 @@
     <mergeCell ref="V30"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="M36"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="P36:P37"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -1954,18 +1954,42 @@
         <f>SUM(L36:L37)</f>
         <v/>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="18" t="inlineStr">
         <is>
           <t>dinner</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="18" t="n">
         <v>55</v>
       </c>
       <c r="P36" s="28">
         <f>SUM(O36:O37)</f>
         <v/>
       </c>
+      <c r="Q36" s="18" t="inlineStr">
+        <is>
+          <t>kindred</t>
+        </is>
+      </c>
+      <c r="R36" s="18" t="n">
+        <v>250</v>
+      </c>
+      <c r="S36" s="28">
+        <f>SUM(R36:R40)</f>
+        <v/>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>60</v>
+      </c>
+      <c r="V36" s="28">
+        <f>SUM(U36:U36)</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="inlineStr">
@@ -1997,13 +2021,21 @@
       <c r="L37" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" s="18" t="inlineStr">
         <is>
           <t>pie</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="18" t="n">
         <v>38</v>
+      </c>
+      <c r="Q37" s="18" t="inlineStr">
+        <is>
+          <t>cooking</t>
+        </is>
+      </c>
+      <c r="R37" s="18" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -2020,6 +2052,14 @@
       <c r="C38" s="18" t="n">
         <v>77</v>
       </c>
+      <c r="Q38" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="R38" s="18" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="18" t="inlineStr">
@@ -2035,6 +2075,14 @@
       <c r="C39" s="18" t="n">
         <v>116</v>
       </c>
+      <c r="Q39" s="18" t="inlineStr">
+        <is>
+          <t>hygiene</t>
+        </is>
+      </c>
+      <c r="R39" s="18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="inlineStr">
@@ -2050,10 +2098,18 @@
       <c r="C40" s="18" t="n">
         <v>150</v>
       </c>
+      <c r="Q40" s="18" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="R40" s="18" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="41"/>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="49">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -2100,6 +2156,9 @@
     <mergeCell ref="M36"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="P36:P37"/>
+    <mergeCell ref="S36"/>
+    <mergeCell ref="S36:S40"/>
+    <mergeCell ref="V36"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V9" xSplit="0" ySplit="2"/>
@@ -1954,12 +1954,12 @@
         <f>SUM(L36:L37)</f>
         <v/>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="18" t="inlineStr">
         <is>
           <t>dinner</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="18" t="n">
         <v>55</v>
       </c>
       <c r="P36" s="28">
@@ -1997,12 +1997,12 @@
       <c r="L37" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" s="18" t="inlineStr">
         <is>
           <t>pie</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="18" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2051,9 +2051,144 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41"/>
+    <row r="41">
+      <c r="A41" s="18" t="inlineStr">
+        <is>
+          <t>25/3/2019</t>
+        </is>
+      </c>
+      <c r="B41" s="18" t="inlineStr">
+        <is>
+          <t>breakfast</t>
+        </is>
+      </c>
+      <c r="C41" s="18" t="n">
+        <v>173</v>
+      </c>
+      <c r="D41" s="28">
+        <f>SUM(C41:C45)</f>
+        <v/>
+      </c>
+      <c r="E41" s="18" t="inlineStr">
+        <is>
+          <t>kbananas</t>
+        </is>
+      </c>
+      <c r="F41" s="18" t="n">
+        <v>84</v>
+      </c>
+      <c r="G41" s="28">
+        <f>SUM(F41:F43)</f>
+        <v/>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>150</v>
+      </c>
+      <c r="M41" s="28">
+        <f>SUM(L41:L43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B42" s="18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C42" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="18" t="inlineStr">
+        <is>
+          <t>apples</t>
+        </is>
+      </c>
+      <c r="F42" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B43" s="18" t="inlineStr">
+        <is>
+          <t>kefir</t>
+        </is>
+      </c>
+      <c r="C43" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E43" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="F43" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B44" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="C44" s="18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B45" s="18" t="inlineStr">
+        <is>
+          <t>conc</t>
+        </is>
+      </c>
+      <c r="C45" s="18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="49">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -2100,6 +2235,9 @@
     <mergeCell ref="M36"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="P36:P37"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="M41:M43"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V9" xSplit="0" ySplit="2"/>
@@ -2081,18 +2081,54 @@
         <f>SUM(F41:F43)</f>
         <v/>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" s="18" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" s="18" t="n">
         <v>150</v>
       </c>
       <c r="M41" s="28">
         <f>SUM(L41:L43)</f>
         <v/>
       </c>
+      <c r="N41" s="18" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="O41" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="P41" s="28">
+        <f>SUM(O41:O42)</f>
+        <v/>
+      </c>
+      <c r="Q41" s="18" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="R41" s="18" t="n">
+        <v>104</v>
+      </c>
+      <c r="S41" s="28">
+        <f>SUM(R41:R41)</f>
+        <v/>
+      </c>
+      <c r="T41" s="18" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="U41" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="V41" s="28">
+        <f>SUM(U41:U41)</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="18" t="inlineStr">
@@ -2116,13 +2152,21 @@
       <c r="F42" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" s="18" t="inlineStr">
         <is>
           <t>bananas</t>
         </is>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" s="18" t="n">
         <v>75</v>
+      </c>
+      <c r="N42" s="18" t="inlineStr">
+        <is>
+          <t>dinned</t>
+        </is>
+      </c>
+      <c r="O42" s="18" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -2147,12 +2191,12 @@
       <c r="F43" s="18" t="n">
         <v>180</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" s="18" t="inlineStr">
         <is>
           <t>dinner</t>
         </is>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="18" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2186,9 +2230,218 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46"/>
+    <row r="46">
+      <c r="A46" s="18" t="inlineStr">
+        <is>
+          <t>1/4/2019</t>
+        </is>
+      </c>
+      <c r="B46" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C46" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="D46" s="28">
+        <f>SUM(C46:C50)</f>
+        <v/>
+      </c>
+      <c r="E46" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="F46" s="18" t="n">
+        <v>215</v>
+      </c>
+      <c r="G46" s="28">
+        <f>SUM(F46:F52)</f>
+        <v/>
+      </c>
+      <c r="H46" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="I46" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" s="28">
+        <f>SUM(I46:I48)</f>
+        <v/>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>180</v>
+      </c>
+      <c r="M46" s="28">
+        <f>SUM(L46:L48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B47" s="18" t="inlineStr">
+        <is>
+          <t>metro</t>
+        </is>
+      </c>
+      <c r="C47" s="18" t="n">
+        <v>395</v>
+      </c>
+      <c r="E47" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="F47" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="H47" s="18" t="inlineStr">
+        <is>
+          <t>en. drink</t>
+        </is>
+      </c>
+      <c r="I47" s="18" t="n">
+        <v>120</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B48" s="18" t="inlineStr">
+        <is>
+          <t>breakfast</t>
+        </is>
+      </c>
+      <c r="C48" s="18" t="n">
+        <v>110</v>
+      </c>
+      <c r="E48" s="18" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="F48" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H48" s="18" t="inlineStr">
+        <is>
+          <t>hygiene</t>
+        </is>
+      </c>
+      <c r="I48" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B49" s="18" t="inlineStr">
+        <is>
+          <t>hygiene</t>
+        </is>
+      </c>
+      <c r="C49" s="18" t="n">
+        <v>165</v>
+      </c>
+      <c r="E49" s="18" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="F49" s="18" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B50" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="C50" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="E50" s="18" t="inlineStr">
+        <is>
+          <t>bread</t>
+        </is>
+      </c>
+      <c r="F50" s="18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="18" t="inlineStr">
+        <is>
+          <t>garlic</t>
+        </is>
+      </c>
+      <c r="F51" s="18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E52" s="18" t="inlineStr">
+        <is>
+          <t>blueberries</t>
+        </is>
+      </c>
+      <c r="F52" s="18" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="56">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -2238,6 +2491,13 @@
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="S41"/>
+    <mergeCell ref="V41"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="G46:G52"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="M46:M48"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -2964,18 +2964,30 @@
         <f>SUM(L65:L66)</f>
         <v/>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N65" s="18" t="inlineStr">
         <is>
           <t>bananas</t>
         </is>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" s="18" t="n">
         <v>52</v>
       </c>
       <c r="P65" s="28">
         <f>SUM(O65:O66)</f>
         <v/>
       </c>
+      <c r="Q65" s="18" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="R65" s="18" t="n">
+        <v>300</v>
+      </c>
+      <c r="S65" s="28">
+        <f>SUM(R65:R66)</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="inlineStr">
@@ -3015,13 +3027,21 @@
       <c r="L66" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" s="18" t="inlineStr">
         <is>
           <t>sup</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" s="18" t="n">
         <v>18</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>sup</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -3071,7 +3091,7 @@
     </row>
     <row r="70"/>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3134,6 +3154,8 @@
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="M65:M66"/>
     <mergeCell ref="P65:P66"/>
+    <mergeCell ref="S65"/>
+    <mergeCell ref="S65:S66"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="I1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V42" xSplit="0" ySplit="2"/>
@@ -3035,12 +3035,12 @@
       <c r="O66" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="Q66" s="18" t="inlineStr">
         <is>
           <t>sup</t>
         </is>
       </c>
-      <c r="R66" t="n">
+      <c r="R66" s="18" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3089,9 +3089,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70"/>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>29/4/2019</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>221</v>
+      </c>
+      <c r="D70" s="28">
+        <f>SUM(C70:C71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>alco</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3156,6 +3189,7 @@
     <mergeCell ref="P65:P66"/>
     <mergeCell ref="S65"/>
     <mergeCell ref="S65:S66"/>
+    <mergeCell ref="D70:D71"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="I1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V42" xSplit="0" ySplit="2"/>
@@ -3090,41 +3090,162 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="18" t="inlineStr">
         <is>
           <t>29/4/2019</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="18" t="inlineStr">
         <is>
           <t>chill</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="18" t="n">
         <v>221</v>
       </c>
       <c r="D70" s="28">
         <f>SUM(C70:C71)</f>
         <v/>
       </c>
+      <c r="E70" s="18" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="F70" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G70" s="28">
+        <f>SUM(F70:F73)</f>
+        <v/>
+      </c>
+      <c r="T70" s="18" t="inlineStr">
+        <is>
+          <t>tabacco</t>
+        </is>
+      </c>
+      <c r="U70" s="18" t="n">
+        <v>500</v>
+      </c>
+      <c r="V70" s="28">
+        <f>SUM(U70:U70)</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B71" s="18" t="inlineStr">
         <is>
           <t>alco</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="18" t="n">
         <v>70</v>
       </c>
-    </row>
+      <c r="E71" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="F71" s="18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E72" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="F72" s="18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E73" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="F73" s="18" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="inlineStr">
+        <is>
+          <t>6/5/2019</t>
+        </is>
+      </c>
+      <c r="B74" s="18" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="C74" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D74" s="28">
+        <f>SUM(C74:C74)</f>
+        <v/>
+      </c>
+      <c r="K74" s="18" t="inlineStr">
+        <is>
+          <t>alcho</t>
+        </is>
+      </c>
+      <c r="L74" s="18" t="n">
+        <v>300</v>
+      </c>
+      <c r="M74" s="28">
+        <f>SUM(L74:L75)</f>
+        <v/>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>30</v>
+      </c>
+      <c r="P74" s="28">
+        <f>SUM(O74:O74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K75" s="18" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="L75" s="18" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76"/>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="70">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3190,6 +3311,11 @@
     <mergeCell ref="S65"/>
     <mergeCell ref="S65:S66"/>
     <mergeCell ref="D70:D71"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="V70"/>
+    <mergeCell ref="D74"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="P74"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -3215,16 +3215,16 @@
         <f>SUM(L74:L75)</f>
         <v/>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N74" s="18" t="inlineStr">
         <is>
           <t>chill</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" s="18" t="n">
         <v>30</v>
       </c>
       <c r="P74" s="28">
-        <f>SUM(O74:O74)</f>
+        <f>SUM(O74:O76)</f>
         <v/>
       </c>
     </row>
@@ -3242,10 +3242,32 @@
       <c r="L75" s="18" t="n">
         <v>350</v>
       </c>
-    </row>
-    <row r="76"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3316,6 +3338,7 @@
     <mergeCell ref="D74"/>
     <mergeCell ref="M74:M75"/>
     <mergeCell ref="P74"/>
+    <mergeCell ref="P74:P76"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="I1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V42" xSplit="0" ySplit="2"/>
@@ -3227,6 +3227,18 @@
         <f>SUM(O74:O76)</f>
         <v/>
       </c>
+      <c r="Q74" s="18" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="R74" s="18" t="n">
+        <v>169</v>
+      </c>
+      <c r="S74" s="28">
+        <f>SUM(R74:R74)</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="inlineStr">
@@ -3242,32 +3254,81 @@
       <c r="L75" s="18" t="n">
         <v>350</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N75" s="18" t="inlineStr">
         <is>
           <t>chill</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" s="18" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
+      <c r="A76" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N76" s="18" t="inlineStr">
         <is>
           <t>snacks</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" s="18" t="n">
         <v>114</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>13/5/2019</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>252</v>
+      </c>
+      <c r="D77" s="28">
+        <f>SUM(C77:C79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="73">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3339,6 +3400,8 @@
     <mergeCell ref="M74:M75"/>
     <mergeCell ref="P74"/>
     <mergeCell ref="P74:P76"/>
+    <mergeCell ref="S74"/>
+    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/fin/fins.xlsx
+++ b/fin/fins.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="I1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="V42" xSplit="0" ySplit="2"/>
@@ -3279,56 +3279,189 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="18" t="inlineStr">
         <is>
           <t>13/5/2019</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="18" t="inlineStr">
         <is>
           <t>office</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="18" t="n">
         <v>252</v>
       </c>
       <c r="D77" s="28">
-        <f>SUM(C77:C79)</f>
+        <f>SUM(C77:C83)</f>
+        <v/>
+      </c>
+      <c r="H77" s="18" t="inlineStr">
+        <is>
+          <t>hygiene</t>
+        </is>
+      </c>
+      <c r="I77" s="18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J77" s="28">
+        <f>SUM(I77:I79)</f>
+        <v/>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>limon</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>32</v>
+      </c>
+      <c r="P77" s="28">
+        <f>SUM(O77:O81)</f>
         <v/>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B78" s="18" t="inlineStr">
         <is>
           <t>office</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="18" t="n">
         <v>303</v>
       </c>
+      <c r="H78" s="18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="I78" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B79" s="18" t="inlineStr">
         <is>
           <t>bananas</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="18" t="n">
         <v>25</v>
       </c>
-    </row>
+      <c r="H79" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="I79" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>chocolate</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="C80" s="18" t="n">
+        <v>175</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B81" s="18" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C81" s="18" t="n">
+        <v>195</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C82" s="18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B83" s="18" t="inlineStr">
+        <is>
+          <t>bananas</t>
+        </is>
+      </c>
+      <c r="C83" s="18" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84"/>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="76">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3402,6 +3535,9 @@
     <mergeCell ref="P74:P76"/>
     <mergeCell ref="S74"/>
     <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="P77:P81"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
